--- a/LWCF/Data/ME_LWCFGrants1965-2011.xlsx
+++ b/LWCF/Data/ME_LWCFGrants1965-2011.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherkusmierz/Documents/Files/CodingProjects/LWCF_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/heatherkusmierz/GitHub/DataScienceforConservation/LWCF/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA893450-275E-5044-9FF5-A1DA860AA9D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9819C7E-F340-5747-B1D4-D38AAA33EFBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{0E15DFC0-10A9-3C49-B837-B77054107A6A}"/>
+    <workbookView xWindow="9940" yWindow="1000" windowWidth="27640" windowHeight="16940" xr2:uid="{0E15DFC0-10A9-3C49-B837-B77054107A6A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ME" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
